--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$24</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>Proveedor</t>
   </si>
@@ -177,19 +178,75 @@
   </si>
   <si>
     <t>Cascade</t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>Tablero</t>
+  </si>
+  <si>
+    <t>Devoluciones</t>
+  </si>
+  <si>
+    <t>Facturacion</t>
+  </si>
+  <si>
+    <t>barcode-scan</t>
+  </si>
+  <si>
+    <t>basket-fill</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>earth-box</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>Permiso para crear</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>Permiso para modificar</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Permiso para eliminar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4A596A"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,8 +269,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +554,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +568,7 @@
     <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -526,7 +585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -534,7 +593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -542,7 +601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -550,7 +609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -575,7 +634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -600,7 +659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -625,7 +684,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -650,7 +709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -675,7 +734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -697,7 +756,7 @@
         <v>/tipification/exchangecurrency</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -721,8 +780,14 @@
       <c r="G11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -730,7 +795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -738,7 +803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -746,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -770,8 +835,14 @@
       <c r="G15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -794,6 +865,12 @@
       </c>
       <c r="G16" t="s">
         <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,4 +1052,87 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>